--- a/biology/Zoologie/Chrysolina_polita/Chrysolina_polita.xlsx
+++ b/biology/Zoologie/Chrysolina_polita/Chrysolina_polita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina polita, parfois appelée la chrysomèle polie, est une espèce d'insectes coléoptères de la famille des chrysomélidés.
 L'adulte est visible de juin à septembre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes ont le corps long de 6,5 à 8 mm, le thorax bronzé cuivreux métallique, les élytres rouges avec reflets plus ou moins mordorés. 
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement[réf. nécessaire] répandue en Europe, du Portugal à la Scandinavie et jusqu'en Russie et la Turquie.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a pour biotopes : lisières, talus, berges et autres lieux humides où croissent les menthes (Mentha), le lycope (Lycopus europaeus) et le lierre terrestre (Glechoma hederacea), plantes dont se nourrissent les adultes et les larves.
 </t>
@@ -605,11 +623,13 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été signalée en Ukraine comme faisant partie de celles pouvant poser problème pour la culture de certaines plantes médicinales[1].
-Comme chez d'autres espèces de chrysomèles, les œufs et les nouveau-nés peuvent être protégés de certains prédateurs par une toxine (de la famille chimique des cardénolides)[2].
-Une association avec un acarien de la famille des Canestriniidae a été signalée en Ukraine par Trach &amp; Khaustov en 2007[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été signalée en Ukraine comme faisant partie de celles pouvant poser problème pour la culture de certaines plantes médicinales.
+Comme chez d'autres espèces de chrysomèles, les œufs et les nouveau-nés peuvent être protégés de certains prédateurs par une toxine (de la famille chimique des cardénolides).
+Une association avec un acarien de la famille des Canestriniidae a été signalée en Ukraine par Trach &amp; Khaustov en 2007.
 </t>
         </is>
       </c>
